--- a/bh3/503101353679735747_2021-03-17_18-10-12.xlsx
+++ b/bh3/503101353679735747_2021-03-17_18-10-12.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:21:18</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76479166667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4312649460</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-25 06:36:42</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44280.27548611111</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -688,10 +700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-24 11:54:49</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44279.49640046297</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -767,10 +777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-21 18:37:45</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44276.77621527778</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -834,10 +842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-21 11:55:54</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44276.49715277777</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -897,10 +903,8 @@
           <t>4278586017</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:50:32</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44275.61842592592</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -968,10 +972,8 @@
           <t>4278586017</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-20 14:03:14</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44275.58557870371</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1039,10 +1041,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:57:46</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44275.5817824074</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1110,10 +1110,8 @@
           <t>4278637952</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-20 13:03:14</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44275.54391203704</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1173,10 +1171,8 @@
           <t>4278751739</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-20 09:38:20</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44275.40162037037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1244,10 +1240,8 @@
           <t>4278751739</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-20 09:19:45</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44275.38871527778</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1323,10 +1317,8 @@
           <t>4278751739</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-20 09:18:56</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44275.38814814815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1402,10 +1394,8 @@
           <t>4278751739</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-20 09:15:30</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44275.38576388889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1473,10 +1463,8 @@
           <t>4278751739</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-20 08:56:59</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44275.37290509259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1552,10 +1540,8 @@
           <t>4278751739</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-20 07:36:35</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44275.31707175926</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1623,10 +1609,8 @@
           <t>4278637952</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-20 07:29:16</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44275.31199074074</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1694,10 +1678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-19 21:59:45</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44274.91649305556</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1761,10 +1743,8 @@
           <t>4287957335</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-19 19:53:47</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44274.8290162037</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1828,10 +1808,8 @@
           <t>4287586372</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:42:56</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44274.77981481481</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1899,10 +1877,8 @@
           <t>4287402840</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-19 18:08:56</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44274.75620370371</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1970,10 +1946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-19 13:52:48</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44274.57833333333</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2049,10 +2023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-19 11:05:39</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44274.46225694445</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2116,10 +2088,8 @@
           <t>4285698999</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-19 10:58:04</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44274.45699074074</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2183,10 +2153,8 @@
           <t>4285614513</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-19 10:29:19</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44274.43702546296</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2258,10 +2226,8 @@
           <t>4285391671</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-19 09:06:26</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44274.37946759259</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2329,10 +2295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-19 00:09:09</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44274.00635416667</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2409,10 +2373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-18 23:04:55</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44273.96174768519</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2480,10 +2442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-18 21:31:30</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44273.896875</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2555,10 +2515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-18 20:51:26</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44273.86905092592</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2630,10 +2588,8 @@
           <t>4282098622</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-18 20:49:28</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44273.86768518519</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2705,10 +2661,8 @@
           <t>4282098622</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-18 20:43:33</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44273.86357638889</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2780,10 +2734,8 @@
           <t>4278605658</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-18 16:17:10</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44273.67858796296</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2855,10 +2807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-18 14:13:53</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44273.59297453704</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2935,10 +2885,8 @@
           <t>4282098622</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-18 14:08:34</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44273.58928240741</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3002,10 +2950,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:32:18</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44273.52243055555</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3069,10 +3015,8 @@
           <t>4278586925</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:27:14</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44273.51891203703</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3140,10 +3084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-18 12:18:56</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44273.51314814815</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3219,10 +3161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-18 11:29:37</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44273.47890046296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3290,10 +3230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-18 10:33:35</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44273.43998842593</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3369,10 +3307,8 @@
           <t>4281262754</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-18 10:21:10</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44273.43136574074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3440,10 +3376,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-18 10:07:54</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44273.42215277778</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3511,10 +3445,8 @@
           <t>4278586925</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:53:58</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44273.41247685185</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3578,10 +3510,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:53:30</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44273.41215277778</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3645,10 +3575,8 @@
           <t>4281179590</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:52:50</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44273.41168981481</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3712,10 +3640,8 @@
           <t>4281155911</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:41:46</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44273.40400462963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3779,10 +3705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:12:42</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44273.38381944445</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3858,10 +3782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:07:13</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44273.38001157407</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3937,10 +3859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-18 09:05:48</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44273.37902777778</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4000,10 +3920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-18 07:26:05</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44273.30978009259</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4079,10 +3997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-18 02:22:52</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44273.09921296296</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4150,10 +4066,8 @@
           <t>4280613697</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-18 02:05:52</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44273.08740740741</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4221,10 +4135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-18 01:42:34</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44273.07122685185</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4296,10 +4208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-18 01:12:13</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44273.05015046296</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4372,10 +4282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:58:02</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44273.04030092592</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4439,10 +4347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:56:34</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44273.03928240741</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4518,10 +4424,8 @@
           <t>4280457016</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:51:36</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44273.03583333334</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4589,10 +4493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:51:12</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44273.03555555556</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4656,10 +4558,8 @@
           <t>4280393015</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:34:02</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44273.02363425926</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4731,10 +4631,8 @@
           <t>4280211074</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:32:36</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44273.02263888889</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4806,10 +4704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:18:47</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44273.01304398148</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4881,10 +4777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:12:01</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44273.00834490741</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4952,10 +4846,8 @@
           <t>4280288691</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:08:37</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44273.0059837963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5019,10 +4911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:02:46</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44273.00192129629</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5086,10 +4976,8 @@
           <t>4278626785</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:58:29</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44272.99894675926</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5157,10 +5045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:56:45</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44272.99774305556</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5228,10 +5114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:54:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44272.9964699074</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5299,10 +5183,8 @@
           <t>4280211074</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:50:50</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44272.99363425926</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5375,10 +5257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:48:47</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44272.99221064815</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5448,10 +5328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:31:11</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44272.97998842593</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5511,10 +5389,8 @@
           <t>4280048994</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:20:48</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44272.97277777778</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5578,10 +5454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:19:35</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44272.97193287037</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5649,10 +5523,8 @@
           <t>4280020730</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:14:28</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44272.96837962963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5716,10 +5588,8 @@
           <t>4280007371</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:12:36</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44272.96708333334</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5783,10 +5653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:05:56</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44272.9624537037</v>
       </c>
       <c r="I75" t="n">
         <v>5</v>
@@ -5854,10 +5722,8 @@
           <t>4279894698</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:52:23</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44272.95304398148</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5929,10 +5795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:28:19</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44272.93633101852</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6000,10 +5864,8 @@
           <t>4279682334</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:12:58</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44272.9256712963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6071,10 +5933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:12:01</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44272.92501157407</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6138,10 +5998,8 @@
           <t>4279654891</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:08:37</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44272.92265046296</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6213,10 +6071,8 @@
           <t>4279658017</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:07:42</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44272.92201388889</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6288,10 +6144,8 @@
           <t>4278643263</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-17 22:01:21</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44272.91760416667</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6359,10 +6213,8 @@
           <t>4278605658</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:59:05</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44272.91603009259</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6438,10 +6290,8 @@
           <t>4279376370</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:58:40</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44272.91574074074</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6518,10 +6368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:44:46</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44272.90608796296</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6585,10 +6433,8 @@
           <t>4279376370</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:34:48</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44272.89916666667</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6657,10 +6503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:31:06</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44272.89659722222</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6736,10 +6580,8 @@
           <t>4279376370</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:30:44</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44272.89634259259</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6816,10 +6658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:29:34</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44272.8955324074</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6891,10 +6731,8 @@
           <t>4279376370</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:29:28</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44272.89546296297</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6962,10 +6800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:28:56</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44272.89509259259</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7041,10 +6877,8 @@
           <t>4278585876</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:28:53</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44272.89505787037</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7104,10 +6938,8 @@
           <t>4279461876</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:28:44</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44272.8949537037</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7171,10 +7003,8 @@
           <t>4279457028</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:28:34</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44272.89483796297</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7238,10 +7068,8 @@
           <t>4279376370</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:28:34</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44272.89483796297</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7309,10 +7137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:27:35</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44272.8941550926</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7388,10 +7214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:25:06</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44272.89243055556</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7451,10 +7275,8 @@
           <t>4279436588</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:23:19</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44272.89119212963</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7514,10 +7336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:22:45</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44272.89079861111</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7577,10 +7397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:21:30</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44272.88993055555</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7652,10 +7470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:20:39</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44272.88934027778</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7731,10 +7547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:20:06</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44272.88895833334</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7802,10 +7616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:19:09</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44272.88829861111</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7865,10 +7677,8 @@
           <t>4278579243</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:13:38</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44272.88446759259</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7936,10 +7746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:11:20</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44272.88287037037</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8015,10 +7823,8 @@
           <t>4279377337</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:11:18</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44272.88284722222</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8090,10 +7896,8 @@
           <t>4279376696</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:10:53</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44272.88255787037</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8161,10 +7965,8 @@
           <t>4279376370</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:10:41</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44272.88241898148</v>
       </c>
       <c r="I108" t="n">
         <v>4</v>
@@ -8232,10 +8034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:05:23</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44272.87873842593</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8299,10 +8099,8 @@
           <t>4279204511</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-17 21:00:54</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44272.875625</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8366,10 +8164,8 @@
           <t>4279321477</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:59:40</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44272.87476851852</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8445,10 +8241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:59:36</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44272.87472222222</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8520,10 +8314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:58:21</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44272.87385416667</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8599,10 +8391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:57:30</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44272.87326388889</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8678,10 +8468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:57:12</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44272.87305555555</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8749,10 +8537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:54:40</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44272.8712962963</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8820,10 +8606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:53:23</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44272.8704050926</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8891,10 +8675,8 @@
           <t>4279278205</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:51:03</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44272.86878472222</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8962,10 +8744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:50:51</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44272.86864583333</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9033,10 +8813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:48:20</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44272.86689814815</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9100,10 +8878,8 @@
           <t>4279157413</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:47:25</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44272.86626157408</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -9175,10 +8951,8 @@
           <t>4279265318</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:46:11</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44272.86540509259</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9242,10 +9016,8 @@
           <t>4279181588</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:45:36</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44272.865</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9309,10 +9081,8 @@
           <t>4279252171</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:44:09</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44272.86399305556</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9376,10 +9146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:40:50</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44272.86168981482</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9447,10 +9215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:37:32</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44272.85939814815</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9522,10 +9288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:35:43</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44272.85813657408</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9604,10 +9368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:35:34</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44272.85803240741</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9678,10 +9440,8 @@
           <t>4279204511</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:35:22</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44272.85789351852</v>
       </c>
       <c r="I129" t="n">
         <v>4</v>
@@ -9749,10 +9509,8 @@
           <t>4279200004</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:32:23</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44272.85582175926</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -9820,10 +9578,8 @@
           <t>4278643263</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:30:53</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44272.8547800926</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9891,10 +9647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:30:20</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44272.85439814815</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9963,10 +9717,8 @@
           <t>4279181588</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:29:44</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44272.85398148148</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10034,10 +9786,8 @@
           <t>4278643263</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:24:53</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44272.85061342592</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10105,10 +9855,8 @@
           <t>4279157413</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:23:48</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44272.84986111111</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10172,10 +9920,8 @@
           <t>4278772107</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:22:55</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44272.84924768518</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10247,10 +9993,8 @@
           <t>4278593907</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:20:31</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44272.84758101852</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10318,10 +10062,8 @@
           <t>4278587955</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:19:59</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44272.84721064815</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10385,10 +10127,8 @@
           <t>4278772107</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:19:33</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44272.84690972222</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10460,10 +10200,8 @@
           <t>4279135898</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:19:14</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44272.84668981482</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10539,10 +10277,8 @@
           <t>4278772107</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:18:06</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44272.84590277778</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10614,10 +10350,8 @@
           <t>4278850770</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:17:30</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44272.84548611111</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10685,10 +10419,8 @@
           <t>4278587955</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:17:28</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44272.84546296296</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10760,10 +10492,8 @@
           <t>4278850770</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:16:22</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44272.84469907408</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10831,10 +10561,8 @@
           <t>4278772107</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:15:34</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44272.84414351852</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10903,10 +10631,8 @@
           <t>4278772107</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:14:55</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44272.84369212963</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10975,10 +10701,8 @@
           <t>4279107272</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:13:33</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44272.84274305555</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11038,10 +10762,8 @@
           <t>4279110246</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:12:21</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44272.84190972222</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11101,10 +10823,8 @@
           <t>4279105011</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:12:04</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44272.84171296296</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11176,10 +10896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:11:35</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44272.84137731481</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11256,10 +10974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:08:23</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44272.8391550926</v>
       </c>
       <c r="I151" t="n">
         <v>4</v>
@@ -11328,10 +11044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:05:52</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44272.83740740741</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11407,10 +11121,8 @@
           <t>4279074339</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:05:38</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44272.83724537037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11478,10 +11190,8 @@
           <t>4279069576</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:05:33</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44272.8371875</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11549,10 +11259,8 @@
           <t>4278657310</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:04:22</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44272.83636574074</v>
       </c>
       <c r="I155" t="n">
         <v>8</v>
@@ -11616,10 +11324,8 @@
           <t>4278557487</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:03:51</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44272.83600694445</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11687,10 +11393,8 @@
           <t>4278586925</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:03:37</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44272.83584490741</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11758,10 +11462,8 @@
           <t>4279071235</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:03:35</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44272.83582175926</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11829,10 +11531,8 @@
           <t>4279061571</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:03:06</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44272.83548611111</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11908,10 +11608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:02:44</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44272.83523148148</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11979,10 +11677,8 @@
           <t>4279059052</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:02:07</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44272.83480324074</v>
       </c>
       <c r="I161" t="n">
         <v>5</v>
@@ -12050,10 +11746,8 @@
           <t>4278605240</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:59:28</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44272.83296296297</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12129,10 +11823,8 @@
           <t>4278605240</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:57:55</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44272.83188657407</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12204,10 +11896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:57:47</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44272.83179398148</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12275,10 +11965,8 @@
           <t>4279037106</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:57:30</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44272.83159722222</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12350,10 +12038,8 @@
           <t>4278657310</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:53:49</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44272.82903935185</v>
       </c>
       <c r="I166" t="n">
         <v>4</v>
@@ -12417,10 +12103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:53:36</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44272.82888888889</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12484,10 +12168,8 @@
           <t>4279008955</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:52:21</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44272.82802083333</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12551,10 +12233,8 @@
           <t>4279001766</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:50:08</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44272.82648148148</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12618,10 +12298,8 @@
           <t>4278999914</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:49:50</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44272.82627314814</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12689,10 +12367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:49:12</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44272.82583333334</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12759,10 +12435,8 @@
           <t>4278971866</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:43:28</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44272.82185185186</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12838,10 +12512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:42:13</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44272.82098379629</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12917,10 +12589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:41:39</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44272.82059027778</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12996,10 +12666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:41:26</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44272.82043981482</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13067,10 +12735,8 @@
           <t>4278954839</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:39:53</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44272.81936342592</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13138,10 +12804,8 @@
           <t>4278954607</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:39:43</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44272.81924768518</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13217,10 +12881,8 @@
           <t>4278955952</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:39:26</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44272.81905092593</v>
       </c>
       <c r="I178" t="n">
         <v>2</v>
@@ -13296,10 +12958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:38:00</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44272.81805555556</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13363,10 +13023,8 @@
           <t>4278942230</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:36:57</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44272.81732638889</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13442,10 +13100,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:36:53</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44272.81728009259</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13513,10 +13169,8 @@
           <t>4278939270</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:36:13</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44272.81681712963</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13584,10 +13238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:34:56</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44272.81592592593</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13651,10 +13303,8 @@
           <t>4278936042</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:34:08</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44272.81537037037</v>
       </c>
       <c r="I184" t="n">
         <v>2</v>
@@ -13726,10 +13376,8 @@
           <t>4278626785</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:33:43</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44272.81508101852</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13793,10 +13441,8 @@
           <t>4278930329</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:33:21</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44272.81482638889</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13864,10 +13510,8 @@
           <t>4278925223</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:32:22</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44272.81414351852</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13931,10 +13575,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:32:15</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44272.8140625</v>
       </c>
       <c r="I188" t="n">
         <v>6</v>
@@ -13998,10 +13640,8 @@
           <t>4278657310</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:30:36</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44272.81291666667</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14077,10 +13717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:30:35</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44272.81290509259</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14152,10 +13790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:30:15</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44272.81267361111</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14231,10 +13867,8 @@
           <t>4278911748</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:30:03</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44272.81253472222</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14310,10 +13944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:29:06</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44272.811875</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14381,10 +14013,8 @@
           <t>4278602881</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:28:42</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44272.81159722222</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14460,10 +14090,8 @@
           <t>4278889096</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:25:51</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44272.80961805556</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14539,10 +14167,8 @@
           <t>4278729402</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:25:22</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44272.8092824074</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14614,10 +14240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:23:08</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44272.80773148148</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14681,10 +14305,8 @@
           <t>4278877879</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:22:12</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44272.80708333333</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14760,10 +14382,8 @@
           <t>4278872528</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:21:29</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44272.80658564815</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14827,10 +14447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:20:40</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44272.80601851852</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -14902,10 +14520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:19:25</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44272.80515046296</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14981,10 +14597,8 @@
           <t>4278677168</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:18:32</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44272.80453703704</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15056,10 +14670,8 @@
           <t>4278586925</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:17:50</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44272.80405092592</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15131,10 +14743,8 @@
           <t>4278797828</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:17:04</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44272.80351851852</v>
       </c>
       <c r="I204" t="n">
         <v>2</v>
@@ -15206,10 +14816,8 @@
           <t>4278613168</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:17:01</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44272.8034837963</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15281,10 +14889,8 @@
           <t>4278851999</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:16:57</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44272.8034375</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15360,10 +14966,8 @@
           <t>4278797828</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:16:41</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44272.80325231481</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15435,10 +15039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:16:30</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44272.803125</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15507,10 +15109,8 @@
           <t>4278764516</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:16:13</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44272.80292824074</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15574,10 +15174,8 @@
           <t>4278850770</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:16:07</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44272.8028587963</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15649,10 +15247,8 @@
           <t>4278797828</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:14:44</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44272.80189814815</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15724,10 +15320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:13:13</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44272.8008449074</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15799,10 +15393,8 @@
           <t>4278613168</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:12:41</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44272.80047453703</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15870,10 +15462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:12:38</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44272.80043981481</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15933,10 +15523,8 @@
           <t>4278824361</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:11:51</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44272.79989583333</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16008,10 +15596,8 @@
           <t>4278821548</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:10:05</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44272.79866898148</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16075,10 +15661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:09:05</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44272.79797453704</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16150,10 +15734,8 @@
           <t>4278644393</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:08:45</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44272.79774305555</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16213,10 +15795,8 @@
           <t>4278808388</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:08:06</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44272.79729166667</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16293,10 +15873,8 @@
           <t>4278709191</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:08:04</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44272.79726851852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16368,10 +15946,8 @@
           <t>4278585876</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:07:56</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44272.79717592592</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16439,10 +16015,8 @@
           <t>4278637952</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:07:26</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44272.7968287037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16502,10 +16076,8 @@
           <t>4278644393</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:07:05</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44272.79658564815</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16581,10 +16153,8 @@
           <t>4278804120</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:06:53</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44272.79644675926</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16662,10 +16232,8 @@
           <t>4278620161</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:06:49</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44272.79640046296</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -16725,10 +16293,8 @@
           <t>4278806110</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:06:38</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44272.79627314815</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16804,10 +16370,8 @@
           <t>4278585876</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:06:20</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44272.79606481481</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16875,10 +16439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:06:13</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44272.7959837963</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16954,10 +16516,8 @@
           <t>4278805126</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:06:01</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44272.79584490741</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -17025,10 +16585,8 @@
           <t>4278797828</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:05:18</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44272.79534722222</v>
       </c>
       <c r="I230" t="n">
         <v>4</v>
@@ -17100,10 +16658,8 @@
           <t>4278801499</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:05:13</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44272.79528935185</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17171,10 +16727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:02:45</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44272.79357638889</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17242,10 +16796,8 @@
           <t>4278579243</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:02:39</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44272.79350694444</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17318,10 +16870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:02:35</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44272.79346064815</v>
       </c>
       <c r="I234" t="n">
         <v>21</v>
@@ -17385,10 +16935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:02:29</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44272.7933912037</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17452,10 +17000,8 @@
           <t>4278781899</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:01:22</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44272.79261574074</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17531,10 +17077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:00:56</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44272.79231481482</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17606,10 +17150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:00:01</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44272.79167824074</v>
       </c>
       <c r="I238" t="n">
         <v>9</v>
@@ -17685,10 +17227,8 @@
           <t>4278772107</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:59:14</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44272.79113425926</v>
       </c>
       <c r="I239" t="n">
         <v>8</v>
@@ -17752,10 +17292,8 @@
           <t>4278764516</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:59</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44272.79096064815</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17827,10 +17365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:30</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44272.790625</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17906,10 +17442,8 @@
           <t>4278763192</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:58:07</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44272.79035879629</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17985,10 +17519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:57:32</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44272.7899537037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18064,10 +17596,8 @@
           <t>4278637952</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:57:23</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44272.78984953704</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18135,10 +17665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:56:28</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44272.78921296296</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18206,10 +17734,8 @@
           <t>4278657310</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:56:00</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44272.78888888889</v>
       </c>
       <c r="I246" t="n">
         <v>7</v>
@@ -18281,10 +17807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:53</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44272.78880787037</v>
       </c>
       <c r="I247" t="n">
         <v>3</v>
@@ -18348,10 +17872,8 @@
           <t>4278637952</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:19</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44272.78841435185</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18411,10 +17933,8 @@
           <t>4278702712</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:55:16</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44272.78837962963</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18482,10 +18002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:54:55</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44272.78813657408</v>
       </c>
       <c r="I250" t="n">
         <v>4</v>
@@ -18556,10 +18074,8 @@
           <t>4278751739</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:54:52</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44272.78810185185</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18635,10 +18151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:54:47</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44272.78804398148</v>
       </c>
       <c r="I252" t="n">
         <v>8</v>
@@ -18710,10 +18224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:54:43</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44272.78799768518</v>
       </c>
       <c r="I253" t="n">
         <v>2</v>
@@ -18777,10 +18289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:53:39</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44272.78725694444</v>
       </c>
       <c r="I254" t="n">
         <v>9</v>
@@ -18852,10 +18362,8 @@
           <t>4278626785</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:53:21</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44272.78704861111</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18919,10 +18427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:52:28</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44272.78643518518</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18990,10 +18496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:52:27</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44272.78642361111</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19065,10 +18569,8 @@
           <t>4278734152</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:52:12</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44272.78625</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19136,10 +18638,8 @@
           <t>4278729402</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:51:10</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44272.7855324074</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19207,10 +18707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:50:36</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44272.78513888889</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19278,10 +18776,8 @@
           <t>4278731422</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:50:22</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44272.78497685185</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19357,10 +18853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:50:15</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44272.78489583333</v>
       </c>
       <c r="I262" t="n">
         <v>2</v>
@@ -19424,10 +18918,8 @@
           <t>4278585876</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:49:40</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44272.78449074074</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19503,10 +18995,8 @@
           <t>4278633733</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:49:10</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44272.78414351852</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19578,10 +19068,8 @@
           <t>4278579243</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:57</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44272.78399305556</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19649,10 +19137,8 @@
           <t>4278718855</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:45</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44272.78385416666</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19720,10 +19206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:43</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44272.78383101852</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19791,10 +19275,8 @@
           <t>4278721371</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:48:09</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44272.7834375</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19870,10 +19352,8 @@
           <t>4278717225</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:41</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44272.78311342592</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19949,10 +19429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:29</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44272.78297453704</v>
       </c>
       <c r="I270" t="n">
         <v>2</v>
@@ -20016,10 +19494,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:47:04</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44272.78268518519</v>
       </c>
       <c r="I271" t="n">
         <v>6</v>
@@ -20083,10 +19559,8 @@
           <t>4278709191</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:45</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44272.78246527778</v>
       </c>
       <c r="I272" t="n">
         <v>3</v>
@@ -20154,10 +19628,8 @@
           <t>4278579243</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:38</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44272.78238425926</v>
       </c>
       <c r="I273" t="n">
         <v>20</v>
@@ -20229,10 +19701,8 @@
           <t>4278702712</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:36</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44272.78236111111</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20296,10 +19766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:31</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44272.78230324074</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20375,10 +19843,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:26</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44272.78224537037</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -20447,10 +19913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:46:07</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44272.78202546296</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20518,10 +19982,8 @@
           <t>4278567406</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:45:49</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44272.78181712963</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20593,10 +20055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:45:37</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44272.78167824074</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20660,10 +20120,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:45:37</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44272.78167824074</v>
       </c>
       <c r="I280" t="n">
         <v>12</v>
@@ -20735,10 +20193,8 @@
           <t>4278703851</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:45:28</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44272.78157407408</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20802,10 +20258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:45:15</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44272.78142361111</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20881,10 +20335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:44:58</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44272.78122685185</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20956,10 +20408,8 @@
           <t>4278703051</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:44:56</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44272.7812037037</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21019,10 +20469,8 @@
           <t>4278702712</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:44:43</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44272.78105324074</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21090,10 +20538,8 @@
           <t>4278585876</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:44:32</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44272.78092592592</v>
       </c>
       <c r="I286" t="n">
         <v>4</v>
@@ -21161,10 +20607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:44:13</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44272.78070601852</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21228,10 +20672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:44:12</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44272.78069444445</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21307,10 +20749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:43:55</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44272.78049768518</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21387,10 +20827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:43:51</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44272.78045138889</v>
       </c>
       <c r="I290" t="n">
         <v>3</v>
@@ -21458,10 +20896,8 @@
           <t>4278587955</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:43:37</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44272.78028935185</v>
       </c>
       <c r="I291" t="n">
         <v>6</v>
@@ -21529,10 +20965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:43:27</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44272.78017361111</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21608,10 +21042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:42:47</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44272.77971064814</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21683,10 +21115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:42:01</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44272.77917824074</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21750,10 +21180,8 @@
           <t>4278684769</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:42:01</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44272.77917824074</v>
       </c>
       <c r="I295" t="n">
         <v>10</v>
@@ -21821,10 +21249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:41:52</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44272.77907407407</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21884,10 +21310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:41:49</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44272.77903935185</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21955,10 +21379,8 @@
           <t>4278691372</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:41:39</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44272.77892361111</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22022,10 +21444,8 @@
           <t>4278691300</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:41:36</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44272.77888888889</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22097,10 +21517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:41:06</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44272.77854166667</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22160,10 +21578,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:41:06</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44272.77854166667</v>
       </c>
       <c r="I301" t="n">
         <v>12</v>
@@ -22227,10 +21643,8 @@
           <t>4278682809</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:40:48</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44272.77833333334</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22294,10 +21708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:40:32</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44272.77814814815</v>
       </c>
       <c r="I303" t="n">
         <v>4</v>
@@ -22370,10 +21782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:40:22</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44272.7780324074</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22437,10 +21847,8 @@
           <t>4278586017</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:40:01</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44272.77778935185</v>
       </c>
       <c r="I305" t="n">
         <v>8</v>
@@ -22504,10 +21912,8 @@
           <t>4278674750</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:39:35</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44272.77748842593</v>
       </c>
       <c r="I306" t="n">
         <v>7</v>
@@ -22576,10 +21982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:39:30</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44272.77743055556</v>
       </c>
       <c r="I307" t="n">
         <v>15</v>
@@ -22643,10 +22047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:38:58</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44272.77706018519</v>
       </c>
       <c r="I308" t="n">
         <v>17</v>
@@ -22715,10 +22117,8 @@
           <t>4278677168</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:38:55</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44272.77702546296</v>
       </c>
       <c r="I309" t="n">
         <v>13</v>
@@ -22786,10 +22186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:38:50</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44272.7769675926</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22857,10 +22255,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:38:43</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44272.77688657407</v>
       </c>
       <c r="I311" t="n">
         <v>5</v>
@@ -22928,10 +22324,8 @@
           <t>4278673340</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:38:39</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44272.77684027778</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23007,10 +22401,8 @@
           <t>4278585876</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:38:11</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44272.7765162037</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23078,10 +22470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:37:59</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44272.77637731482</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23157,10 +22547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:37:20</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44272.77592592593</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23236,10 +22624,8 @@
           <t>4278663988</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:54</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44272.775625</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23311,10 +22697,8 @@
           <t>4278670602</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:53</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44272.77561342593</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23382,10 +22766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:52</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44272.77560185185</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23457,10 +22839,8 @@
           <t>4278585876</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:48</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44272.77555555556</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23532,10 +22912,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:45</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44272.77552083333</v>
       </c>
       <c r="I320" t="n">
         <v>4</v>
@@ -23607,10 +22985,8 @@
           <t>4278663690</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:43</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44272.77549768519</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23682,10 +23058,8 @@
           <t>4278670321</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:42</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44272.77548611111</v>
       </c>
       <c r="I322" t="n">
         <v>9</v>
@@ -23754,10 +23128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:36:18</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44272.77520833333</v>
       </c>
       <c r="I323" t="n">
         <v>9</v>
@@ -23817,10 +23189,8 @@
           <t>4278637952</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:51</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44272.77489583333</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23888,10 +23258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:43</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44272.77480324074</v>
       </c>
       <c r="I325" t="n">
         <v>3</v>
@@ -23955,10 +23323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:42</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44272.77479166666</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24022,10 +23388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:39</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44272.77475694445</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24089,10 +23453,8 @@
           <t>4278654654</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:39</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44272.77475694445</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24164,10 +23526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:23</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44272.77457175926</v>
       </c>
       <c r="I329" t="n">
         <v>2</v>
@@ -24243,10 +23603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:20</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44272.77453703704</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24310,10 +23668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:17</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44272.77450231482</v>
       </c>
       <c r="I331" t="n">
         <v>16</v>
@@ -24381,10 +23737,8 @@
           <t>4278657373</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:45</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44272.77413194445</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24456,10 +23810,8 @@
           <t>4278657310</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:42</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44272.77409722222</v>
       </c>
       <c r="I333" t="n">
         <v>29</v>
@@ -24523,10 +23875,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:41</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44272.77408564815</v>
       </c>
       <c r="I334" t="n">
         <v>18</v>
@@ -24594,10 +23944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:17</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44272.77380787037</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24661,10 +24009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:15</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44272.77378472222</v>
       </c>
       <c r="I336" t="n">
         <v>4</v>
@@ -24733,10 +24079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:13</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44272.77376157408</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24808,10 +24152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:34:08</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44272.7737037037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24883,10 +24225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:33:57</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44272.77357638889</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24954,10 +24294,8 @@
           <t>4278651780</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:33:47</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44272.77346064815</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25025,10 +24363,8 @@
           <t>4278651507</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:33:36</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44272.77333333333</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25088,10 +24424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:33:30</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44272.77326388889</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25163,10 +24497,8 @@
           <t>4278644393</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:32:46</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44272.77275462963</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25230,10 +24562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:32:19</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44272.77244212963</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25301,10 +24631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:32:14</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44272.77238425926</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25376,10 +24704,8 @@
           <t>4278643263</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:32:03</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44272.77225694444</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25452,10 +24778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:53</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44272.77214120371</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25519,10 +24843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:47</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44272.77207175926</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25590,10 +24912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:46</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44272.77206018518</v>
       </c>
       <c r="I349" t="n">
         <v>2</v>
@@ -25657,10 +24977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:39</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44272.77197916667</v>
       </c>
       <c r="I350" t="n">
         <v>8</v>
@@ -25728,10 +25046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:28</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44272.77185185185</v>
       </c>
       <c r="I351" t="n">
         <v>7</v>
@@ -25791,10 +25107,8 @@
           <t>4278609927</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:28</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44272.77185185185</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -25870,10 +25184,8 @@
           <t>4278637952</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:21</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44272.77177083334</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -25941,10 +25253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:11</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44272.77165509259</v>
       </c>
       <c r="I354" t="n">
         <v>4</v>
@@ -26016,10 +25326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:29</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44272.77116898148</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26098,10 +25406,8 @@
           <t>4278633733</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:06</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44272.77090277777</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26161,10 +25467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:30:02</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44272.77085648148</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26240,10 +25544,8 @@
           <t>4278626785</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:50</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44272.77071759259</v>
       </c>
       <c r="I358" t="n">
         <v>2</v>
@@ -26319,10 +25621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:48</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44272.77069444444</v>
       </c>
       <c r="I359" t="n">
         <v>2</v>
@@ -26390,10 +25690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:47</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44272.77068287037</v>
       </c>
       <c r="I360" t="n">
         <v>6</v>
@@ -26457,10 +25755,8 @@
           <t>4278629513</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:36</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44272.77055555556</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26533,10 +25829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:34</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44272.7705324074</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26604,10 +25898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:26</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44272.77043981481</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26671,10 +25963,8 @@
           <t>4278632671</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:24</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44272.77041666667</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26750,10 +26040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:23</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44272.77040509259</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26825,10 +26113,8 @@
           <t>4278586017</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:29:07</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44272.7702199074</v>
       </c>
       <c r="I366" t="n">
         <v>7</v>
@@ -26896,10 +26182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:28:34</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44272.76983796297</v>
       </c>
       <c r="I367" t="n">
         <v>3</v>
@@ -26972,10 +26256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:28:28</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44272.76976851852</v>
       </c>
       <c r="I368" t="n">
         <v>3</v>
@@ -27047,10 +26329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:28:13</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44272.7695949074</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27119,10 +26399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:28:01</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44272.76945601852</v>
       </c>
       <c r="I370" t="n">
         <v>15</v>
@@ -27182,10 +26460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:27:55</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44272.76938657407</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27253,10 +26529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:27:55</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44272.76938657407</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27324,10 +26598,8 @@
           <t>4278593907</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:27:51</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44272.76934027778</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27399,10 +26671,8 @@
           <t>4278626785</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:27:50</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44272.7693287037</v>
       </c>
       <c r="I374" t="n">
         <v>18</v>
@@ -27466,10 +26736,8 @@
           <t>4278621857</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:27:27</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44272.7690625</v>
       </c>
       <c r="I375" t="n">
         <v>32</v>
@@ -27537,10 +26805,8 @@
           <t>4278586017</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:26:45</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44272.76857638889</v>
       </c>
       <c r="I376" t="n">
         <v>15</v>
@@ -27608,10 +26874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:26:44</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44272.76856481482</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27687,10 +26951,8 @@
           <t>4278614996</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:26:40</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44272.76851851852</v>
       </c>
       <c r="I378" t="n">
         <v>20</v>
@@ -27750,10 +27012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:26:31</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44272.76841435185</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27826,10 +27086,8 @@
           <t>4278620161</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:26:20</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44272.76828703703</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -27905,10 +27163,8 @@
           <t>4278579243</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:26:12</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44272.76819444444</v>
       </c>
       <c r="I381" t="n">
         <v>14</v>
@@ -27985,10 +27241,8 @@
           <t>4278609927</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:26:11</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44272.76818287037</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28056,10 +27310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:26:10</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44272.76817129629</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28131,10 +27383,8 @@
           <t>4278609824</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:26:07</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44272.76813657407</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28198,10 +27448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:25:43</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44272.76785879629</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28273,10 +27521,8 @@
           <t>4278609172</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:25:42</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44272.76784722223</v>
       </c>
       <c r="I386" t="n">
         <v>3</v>
@@ -28344,10 +27590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:25:35</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44272.7677662037</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28424,10 +27668,8 @@
           <t>4278613168</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:25:27</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44272.76767361111</v>
       </c>
       <c r="I388" t="n">
         <v>5</v>
@@ -28499,10 +27741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:25:26</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44272.76766203704</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28566,10 +27806,8 @@
           <t>4278616550</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:25:21</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44272.76760416666</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28641,10 +27879,8 @@
           <t>4278612913</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:25:18</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44272.76756944445</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28720,10 +27956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:25:10</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44272.76747685186</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28787,10 +28021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:25:10</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44272.76747685186</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -28866,10 +28098,8 @@
           <t>4278615963</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:58</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44272.76733796296</v>
       </c>
       <c r="I394" t="n">
         <v>6</v>
@@ -28937,10 +28167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:57</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44272.76732638889</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29004,10 +28232,8 @@
           <t>4278579243</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:56</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44272.76731481482</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29083,10 +28309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:54</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44272.76729166666</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29154,10 +28378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:41</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44272.7671412037</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29217,10 +28439,8 @@
           <t>4278615517</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:39</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44272.76711805556</v>
       </c>
       <c r="I399" t="n">
         <v>4</v>
@@ -29288,10 +28508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:38</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44272.76710648148</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29355,10 +28573,8 @@
           <t>4278587955</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:17</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44272.76686342592</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29437,10 +28653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:12</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44272.76680555556</v>
       </c>
       <c r="I402" t="n">
         <v>51</v>
@@ -29504,10 +28718,8 @@
           <t>4278611215</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:24:10</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44272.76678240741</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29571,10 +28783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:52</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44272.76657407408</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29650,10 +28860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:35</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44272.76637731482</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29717,10 +28925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:34</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44272.76636574074</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29788,10 +28994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:34</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44272.76636574074</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -29863,10 +29067,8 @@
           <t>4278605658</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:23</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44272.76623842592</v>
       </c>
       <c r="I408" t="n">
         <v>9</v>
@@ -29934,10 +29136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:18</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44272.76618055555</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30005,10 +29205,8 @@
           <t>4278599912</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:18</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44272.76618055555</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30085,10 +29283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:16</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44272.76615740741</v>
       </c>
       <c r="I411" t="n">
         <v>47</v>
@@ -30152,10 +29348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:15</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44272.76614583333</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30232,10 +29426,8 @@
           <t>4278593907</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:10</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44272.76608796296</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30303,10 +29495,8 @@
           <t>4278603364</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:09</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44272.76607638889</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -30378,10 +29568,8 @@
           <t>4278586925</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:07</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44272.76605324074</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30449,10 +29637,8 @@
           <t>4278605240</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:07</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44272.76605324074</v>
       </c>
       <c r="I416" t="n">
         <v>28</v>
@@ -30528,10 +29714,8 @@
           <t>4278599632</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:06</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44272.76604166667</v>
       </c>
       <c r="I417" t="n">
         <v>3</v>
@@ -30607,10 +29791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:05</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44272.76603009259</v>
       </c>
       <c r="I418" t="n">
         <v>3</v>
@@ -30682,10 +29864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:23:05</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44272.76603009259</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30753,10 +29933,8 @@
           <t>4278602881</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:22:49</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44272.76584490741</v>
       </c>
       <c r="I420" t="n">
         <v>15</v>
@@ -30828,10 +30006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:22:35</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44272.76568287037</v>
       </c>
       <c r="I421" t="n">
         <v>3</v>
@@ -30903,10 +30079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:22:29</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44272.76561342592</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -30970,10 +30144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:22:14</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44272.76543981482</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31049,10 +30221,8 @@
           <t>4278593907</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:22:14</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44272.76543981482</v>
       </c>
       <c r="I424" t="n">
         <v>12</v>
@@ -31128,10 +30298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:22:11</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44272.76540509259</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31203,10 +30371,8 @@
           <t>4278601844</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:22:07</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44272.7653587963</v>
       </c>
       <c r="I426" t="n">
         <v>3</v>
@@ -31278,10 +30444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:22:02</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44272.76530092592</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31349,10 +30513,8 @@
           <t>4278598046</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:22:02</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44272.76530092592</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
@@ -31428,10 +30590,8 @@
           <t>4278593425</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:56</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44272.76523148148</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31507,10 +30667,8 @@
           <t>4278593419</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:55</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44272.76521990741</v>
       </c>
       <c r="I430" t="n">
         <v>9</v>
@@ -31574,10 +30732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:47</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44272.76512731481</v>
       </c>
       <c r="I431" t="n">
         <v>2</v>
@@ -31649,10 +30805,8 @@
           <t>4278593174</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:45</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44272.76510416667</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31724,10 +30878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:40</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44272.7650462963</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31792,10 +30944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:40</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44272.7650462963</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -31871,10 +31021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:37</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44272.76501157408</v>
       </c>
       <c r="I435" t="n">
         <v>20</v>
@@ -31946,10 +31094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:36</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44272.765</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32021,10 +31167,8 @@
           <t>4278601035</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:35</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44272.76498842592</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32092,10 +31236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:30</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44272.76493055555</v>
       </c>
       <c r="I438" t="n">
         <v>4</v>
@@ -32163,10 +31305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:18</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44272.76479166667</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32234,10 +31374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:16</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44272.76476851852</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32301,10 +31439,8 @@
           <t>4278592433</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:15</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44272.76475694445</v>
       </c>
       <c r="I441" t="n">
         <v>4</v>
@@ -32372,10 +31508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:11</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44272.76471064815</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32447,10 +31581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:21:09</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44272.7646875</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32522,10 +31654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:52</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44272.76449074074</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32601,10 +31731,8 @@
           <t>4278596331</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:51</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44272.76447916667</v>
       </c>
       <c r="I445" t="n">
         <v>3</v>
@@ -32682,10 +31810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:45</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44272.76440972222</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32749,10 +31875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:36</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44272.76430555555</v>
       </c>
       <c r="I447" t="n">
         <v>19</v>
@@ -32824,10 +31948,8 @@
           <t>4278595981</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:36</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44272.76430555555</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32900,10 +32022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:24</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44272.76416666667</v>
       </c>
       <c r="I449" t="n">
         <v>1</v>
@@ -32979,10 +32099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:22</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44272.76414351852</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33054,10 +32172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:14</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44272.76405092593</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33123,10 +32239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:12</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44272.76402777778</v>
       </c>
       <c r="I452" t="n">
         <v>33</v>
@@ -33202,10 +32316,8 @@
           <t>4278586017</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:12</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44272.76402777778</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33277,10 +32389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:20:05</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44272.76394675926</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33352,10 +32462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:19:52</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44272.7637962963</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33431,10 +32539,8 @@
           <t>4278580515</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:19:49</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44272.76376157408</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33498,10 +32604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:19:23</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44272.76346064815</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33569,10 +32673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:19:22</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44272.76344907407</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33648,10 +32750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:19:15</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44272.76336805556</v>
       </c>
       <c r="I459" t="n">
         <v>15</v>
@@ -33719,10 +32819,8 @@
           <t>4278579243</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:19:11</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44272.76332175926</v>
       </c>
       <c r="I460" t="n">
         <v>82</v>
@@ -33794,10 +32892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:19:09</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44272.76329861111</v>
       </c>
       <c r="I461" t="n">
         <v>11</v>
@@ -33865,10 +32961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:57</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44272.76315972222</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33940,10 +33034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:55</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44272.76313657407</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34011,10 +33103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:54</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44272.763125</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34090,10 +33180,8 @@
           <t>4278587051</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:52</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44272.76310185185</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34165,10 +33253,8 @@
           <t>4278586925</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:47</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44272.76304398148</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34240,10 +33326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:24</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44272.76277777777</v>
       </c>
       <c r="I467" t="n">
         <v>1</v>
@@ -34307,10 +33391,8 @@
           <t>4278586328</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:24</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44272.76277777777</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34374,10 +33456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:20</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44272.76273148148</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34453,10 +33533,8 @@
           <t>4278586017</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:11</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44272.76262731481</v>
       </c>
       <c r="I470" t="n">
         <v>11</v>
@@ -34524,10 +33602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:10</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44272.76261574074</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34595,10 +33671,8 @@
           <t>4278585876</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:18:05</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44272.76255787037</v>
       </c>
       <c r="I472" t="n">
         <v>3</v>
@@ -34674,10 +33748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:58</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44272.76247685185</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34737,10 +33809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:49</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44272.76237268518</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34808,10 +33878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:49</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44272.76237268518</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34887,10 +33955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:46</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44272.76233796297</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34954,10 +34020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:43</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44272.76230324074</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35021,10 +34085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:37</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44272.7622337963</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35088,10 +34150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:25</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44272.7620949074</v>
       </c>
       <c r="I479" t="n">
         <v>63</v>
@@ -35160,10 +34220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:23</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44272.76207175926</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35239,10 +34297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:20</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44272.76203703704</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35306,10 +34362,8 @@
           <t>4278581118</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:20</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44272.76203703704</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35385,10 +34439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:17</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44272.76200231481</v>
       </c>
       <c r="I483" t="n">
         <v>62</v>
@@ -35452,10 +34504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:14</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44272.7619675926</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35527,10 +34577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:17:10</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44272.7619212963</v>
       </c>
       <c r="I485" t="n">
         <v>3</v>
@@ -35606,10 +34654,8 @@
           <t>4278575932</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:59</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44272.76179398148</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35681,10 +34727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:56</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44272.76175925926</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -35760,10 +34804,8 @@
           <t>4278580515</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:55</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44272.76174768519</v>
       </c>
       <c r="I488" t="n">
         <v>7</v>
@@ -35827,10 +34869,8 @@
           <t>4278574183</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:55</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44272.76174768519</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35902,10 +34942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:48</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44272.76166666667</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -35973,10 +35011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:45</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44272.76163194444</v>
       </c>
       <c r="I491" t="n">
         <v>1</v>
@@ -36044,10 +35080,8 @@
           <t>4278575540</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:44</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44272.76162037037</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36107,10 +35141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:36</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44272.76152777778</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36178,10 +35210,8 @@
           <t>4278575304</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:36</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44272.76152777778</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36245,10 +35275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:34</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44272.76150462963</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36320,10 +35348,8 @@
           <t>4278569842</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:27</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44272.76142361111</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36395,10 +35421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:15</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44272.76128472222</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36471,10 +35495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:12</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44272.76125</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36542,10 +35564,8 @@
           <t>4278569469</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:11</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44272.76123842593</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36617,10 +35637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:16:05</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44272.76116898148</v>
       </c>
       <c r="I500" t="n">
         <v>2</v>
@@ -36688,10 +35706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:54</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44272.76104166666</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36767,10 +35783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:52</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44272.76101851852</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36842,10 +35856,8 @@
           <t>4278569022</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:52</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44272.76101851852</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36921,10 +35933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:49</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44272.7609837963</v>
       </c>
       <c r="I504" t="n">
         <v>168</v>
@@ -36992,10 +36002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:46</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44272.76094907407</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37067,10 +36075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:44</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44272.76092592593</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37134,10 +36140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:39</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44272.76086805556</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37205,10 +36209,8 @@
           <t>4278568646</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:37</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44272.76084490741</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37284,10 +36286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:34</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44272.76081018519</v>
       </c>
       <c r="I509" t="n">
         <v>3</v>
@@ -37355,10 +36355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:27</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44272.76072916666</v>
       </c>
       <c r="I510" t="n">
         <v>4</v>
@@ -37430,10 +36428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:25</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44272.76070601852</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37505,10 +36501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:16</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44272.76060185185</v>
       </c>
       <c r="I512" t="n">
         <v>619</v>
@@ -37576,10 +36570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:15</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44272.76059027778</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37643,10 +36635,8 @@
           <t>4278571598</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:10</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44272.76053240741</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37714,10 +36704,8 @@
           <t>4278571416</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:15:03</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44272.76045138889</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37789,10 +36777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:59</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44272.76040509259</v>
       </c>
       <c r="I516" t="n">
         <v>52</v>
@@ -37860,10 +36846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:52</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44272.76032407407</v>
       </c>
       <c r="I517" t="n">
         <v>173</v>
@@ -37935,10 +36919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:50</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44272.76030092593</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38011,10 +36993,8 @@
           <t>4278567406</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:45</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44272.76024305556</v>
       </c>
       <c r="I519" t="n">
         <v>4</v>
@@ -38090,10 +37070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:27</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44272.76003472223</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38169,10 +37147,8 @@
           <t>4278570413</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:23</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44272.75998842593</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38240,10 +37216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:18</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44272.75993055556</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38311,10 +37285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:11</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44272.75984953704</v>
       </c>
       <c r="I523" t="n">
         <v>85</v>
@@ -38378,10 +37350,8 @@
           <t>4278566534</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:11</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44272.75984953704</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38445,10 +37415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:05</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44272.75978009259</v>
       </c>
       <c r="I525" t="n">
         <v>42</v>
@@ -38520,10 +37488,8 @@
           <t>4278561446</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:14:04</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44272.75976851852</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38599,10 +37565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:13:58</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44272.75969907407</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38674,10 +37638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:13:43</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44272.75952546296</v>
       </c>
       <c r="I528" t="n">
         <v>21</v>
@@ -38749,10 +37711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:13:39</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44272.75947916666</v>
       </c>
       <c r="I529" t="n">
         <v>8</v>
@@ -38827,10 +37787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:13:31</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44272.75938657407</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38894,10 +37852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:13:31</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44272.75938657407</v>
       </c>
       <c r="I531" t="n">
         <v>99</v>
@@ -38973,10 +37929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:13:29</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44272.75936342592</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39048,10 +38002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:13:02</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44272.75905092592</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39123,10 +38075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:13:01</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44272.75903935185</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39186,10 +38136,8 @@
           <t>4278549771</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:58</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44272.75900462963</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39257,10 +38205,8 @@
           <t>4278558196</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:54</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44272.75895833333</v>
       </c>
       <c r="I536" t="n">
         <v>6</v>
@@ -39332,10 +38278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:52</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44272.75893518519</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39411,10 +38355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:50</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44272.75891203704</v>
       </c>
       <c r="I538" t="n">
         <v>8</v>
@@ -39478,10 +38420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:42</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44272.75881944445</v>
       </c>
       <c r="I539" t="n">
         <v>200</v>
@@ -39550,10 +38490,8 @@
           <t>4278549302</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:38</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44272.75877314815</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39621,10 +38559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:35</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44272.75873842592</v>
       </c>
       <c r="I541" t="n">
         <v>148</v>
@@ -39701,10 +38637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:30</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44272.75868055555</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39772,10 +38706,8 @@
           <t>4278557487</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:26</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44272.75863425926</v>
       </c>
       <c r="I543" t="n">
         <v>16</v>
@@ -39851,10 +38783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:25</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44272.75862268519</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39930,10 +38860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:24</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44272.75861111111</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40001,10 +38929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:12:09</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44272.7584375</v>
       </c>
       <c r="I546" t="n">
         <v>1</v>
@@ -40076,10 +39002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:11:51</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44272.75822916667</v>
       </c>
       <c r="I547" t="n">
         <v>1</v>
@@ -40151,10 +39075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:11:48</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44272.75819444445</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40230,10 +39152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:11:39</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44272.75809027778</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40297,10 +39217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:11:12</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44272.75777777778</v>
       </c>
       <c r="I550" t="n">
         <v>225</v>
@@ -40368,10 +39286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:11:02</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44272.75766203704</v>
       </c>
       <c r="I551" t="n">
         <v>18</v>
@@ -40435,10 +39351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:11:00</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44272.75763888889</v>
       </c>
       <c r="I552" t="n">
         <v>1</v>
@@ -40510,10 +39424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:10:58</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44272.75761574074</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40591,10 +39503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:10:49</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44272.75751157408</v>
       </c>
       <c r="I554" t="n">
         <v>906</v>
@@ -40663,10 +39573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:10:39</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44272.75739583333</v>
       </c>
       <c r="I555" t="n">
         <v>531</v>
@@ -40734,10 +39642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:10:39</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44272.75739583333</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
